--- a/dependencies/mycobacterium/tbc/af2122/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/mycobacterium/tbc/af2122/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/root/TStuber/Results/mycobacterium/tbc/af2122/script_dependents/script2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Q:\TStuber\Results\mycobacterium\tbc\af2122\script_dependents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1B1B7DE8-DAD3-8A43-9F85-C73F0F804C9D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13340" yWindow="580" windowWidth="25140" windowHeight="27300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13335" yWindow="585" windowWidth="25140" windowHeight="27300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
   <si>
     <t>Mbovis-01</t>
   </si>
@@ -1015,12 +1014,18 @@
   </si>
   <si>
     <t>NC_002945.4-1002057</t>
+  </si>
+  <si>
+    <t>Mcaprae-27C</t>
+  </si>
+  <si>
+    <t>NC_002945.4-220086</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -2015,21 +2020,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E165"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -2037,7 +2042,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2050,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2053,7 +2058,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2061,7 +2066,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2069,7 +2074,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2077,7 +2082,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2085,7 +2090,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -2093,7 +2098,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2101,7 +2106,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2109,7 +2114,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2117,7 +2122,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2125,7 +2130,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2133,7 +2138,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -2141,7 +2146,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2149,7 +2154,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -2157,7 +2162,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2165,7 +2170,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2173,7 +2178,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -2181,7 +2186,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -2189,7 +2194,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2197,7 +2202,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2205,7 +2210,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2213,7 +2218,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2221,7 +2226,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2229,7 +2234,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2237,7 +2242,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2245,7 +2250,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -2253,7 +2258,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -2261,7 +2266,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2269,7 +2274,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2277,7 +2282,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2285,7 +2290,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2293,7 +2298,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -2301,7 +2306,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2309,7 +2314,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2317,7 +2322,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2325,7 +2330,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>327</v>
       </c>
@@ -2333,7 +2338,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>328</v>
       </c>
@@ -2341,7 +2346,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -2349,7 +2354,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2357,7 +2362,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -2365,7 +2370,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -2373,7 +2378,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2381,7 +2386,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -2389,7 +2394,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -2397,7 +2402,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2405,7 +2410,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -2413,7 +2418,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -2421,7 +2426,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -2429,7 +2434,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -2437,7 +2442,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -2445,7 +2450,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2453,7 +2458,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2461,7 +2466,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
@@ -2469,7 +2474,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2477,7 +2482,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>298</v>
       </c>
@@ -2485,7 +2490,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>299</v>
       </c>
@@ -2493,7 +2498,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>300</v>
       </c>
@@ -2501,7 +2506,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>301</v>
       </c>
@@ -2509,7 +2514,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2517,7 +2522,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2525,7 +2530,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>268</v>
       </c>
@@ -2533,7 +2538,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>288</v>
       </c>
@@ -2541,7 +2546,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>289</v>
       </c>
@@ -2549,7 +2554,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>290</v>
       </c>
@@ -2557,7 +2562,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>269</v>
       </c>
@@ -2565,7 +2570,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>270</v>
       </c>
@@ -2573,7 +2578,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="5" t="s">
         <v>13</v>
       </c>
@@ -2581,7 +2586,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>76</v>
       </c>
@@ -2589,7 +2594,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>325</v>
       </c>
@@ -2597,7 +2602,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>77</v>
       </c>
@@ -2605,7 +2610,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>271</v>
       </c>
@@ -2613,7 +2618,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>272</v>
       </c>
@@ -2621,7 +2626,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>273</v>
       </c>
@@ -2629,7 +2634,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>283</v>
       </c>
@@ -2637,7 +2642,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>285</v>
       </c>
@@ -2645,7 +2650,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>14</v>
       </c>
@@ -2653,7 +2658,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -2661,7 +2666,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2669,7 +2674,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2677,7 +2682,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2685,7 +2690,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2693,7 +2698,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2701,7 +2706,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -2709,7 +2714,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -2717,7 +2722,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -2725,7 +2730,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>85</v>
       </c>
@@ -2733,7 +2738,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>86</v>
       </c>
@@ -2741,7 +2746,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -2749,7 +2754,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2757,7 +2762,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -2765,7 +2770,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>90</v>
       </c>
@@ -2773,7 +2778,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>91</v>
       </c>
@@ -2781,7 +2786,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>92</v>
       </c>
@@ -2789,7 +2794,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>93</v>
       </c>
@@ -2797,7 +2802,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -2805,7 +2810,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -2813,7 +2818,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -2821,7 +2826,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -2829,7 +2834,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>18</v>
       </c>
@@ -2837,7 +2842,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -2845,7 +2850,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -2853,7 +2858,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>99</v>
       </c>
@@ -2861,7 +2866,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>100</v>
       </c>
@@ -2869,7 +2874,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -2877,7 +2882,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -2885,7 +2890,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>20</v>
       </c>
@@ -2893,7 +2898,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>102</v>
       </c>
@@ -2901,7 +2906,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>274</v>
       </c>
@@ -2909,7 +2914,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>275</v>
       </c>
@@ -2917,7 +2922,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>292</v>
       </c>
@@ -2925,7 +2930,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>293</v>
       </c>
@@ -2933,7 +2938,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>294</v>
       </c>
@@ -2941,7 +2946,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>103</v>
       </c>
@@ -2949,7 +2954,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>318</v>
       </c>
@@ -2957,7 +2962,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>319</v>
       </c>
@@ -2965,7 +2970,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>322</v>
       </c>
@@ -2973,7 +2978,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>21</v>
       </c>
@@ -2981,7 +2986,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>22</v>
       </c>
@@ -2989,7 +2994,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>104</v>
       </c>
@@ -2997,7 +3002,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>105</v>
       </c>
@@ -3005,7 +3010,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>106</v>
       </c>
@@ -3013,7 +3018,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>107</v>
       </c>
@@ -3021,7 +3026,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>108</v>
       </c>
@@ -3029,7 +3034,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>116</v>
       </c>
@@ -3037,7 +3042,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>109</v>
       </c>
@@ -3045,7 +3050,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>315</v>
       </c>
@@ -3053,7 +3058,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>316</v>
       </c>
@@ -3061,7 +3066,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>317</v>
       </c>
@@ -3069,7 +3074,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>117</v>
       </c>
@@ -3077,7 +3082,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>110</v>
       </c>
@@ -3085,7 +3090,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>23</v>
       </c>
@@ -3093,7 +3098,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -3101,7 +3106,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -3109,7 +3114,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -3117,7 +3122,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -3125,7 +3130,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>111</v>
       </c>
@@ -3133,7 +3138,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>28</v>
       </c>
@@ -3141,7 +3146,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>29</v>
       </c>
@@ -3149,7 +3154,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>123</v>
       </c>
@@ -3157,7 +3162,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>124</v>
       </c>
@@ -3165,7 +3170,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>125</v>
       </c>
@@ -3173,7 +3178,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>126</v>
       </c>
@@ -3181,7 +3186,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>127</v>
       </c>
@@ -3189,7 +3194,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>128</v>
       </c>
@@ -3197,7 +3202,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>129</v>
       </c>
@@ -3205,7 +3210,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>130</v>
       </c>
@@ -3213,7 +3218,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>131</v>
       </c>
@@ -3221,7 +3226,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -3229,7 +3234,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>31</v>
       </c>
@@ -3237,7 +3242,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>32</v>
       </c>
@@ -3245,7 +3250,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>114</v>
       </c>
@@ -3253,7 +3258,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>115</v>
       </c>
@@ -3261,7 +3266,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -3269,7 +3274,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>122</v>
       </c>
@@ -3277,7 +3282,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>118</v>
       </c>
@@ -3285,7 +3290,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>119</v>
       </c>
@@ -3293,7 +3298,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>120</v>
       </c>
@@ -3301,7 +3306,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>121</v>
       </c>
@@ -3309,51 +3314,59 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>330</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B162" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A162"/>
-      <c r="B162"/>
-      <c r="D162" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="E162" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163"/>
       <c r="B163"/>
       <c r="D163" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="E163" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164"/>
       <c r="B164"/>
       <c r="D164" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="E164" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+        <v>310</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165"/>
       <c r="B165"/>
       <c r="D165" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166"/>
+      <c r="B166"/>
+      <c r="D166" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="E165" s="7" t="s">
+      <c r="E166" s="7" t="s">
         <v>312</v>
       </c>
     </row>

--- a/dependencies/mycobacterium/tbc/af2122/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/mycobacterium/tbc/af2122/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13335" yWindow="585" windowWidth="25140" windowHeight="27300" tabRatio="500"/>
+    <workbookView xWindow="13332" yWindow="588" windowWidth="25140" windowHeight="27300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -647,9 +647,6 @@
     <t>NC_002945.4-2073009</t>
   </si>
   <si>
-    <t>NC_002945.4-2095909</t>
-  </si>
-  <si>
     <t>NC_002945.4-2108312</t>
   </si>
   <si>
@@ -1020,6 +1017,9 @@
   </si>
   <si>
     <t>NC_002945.4-220086</t>
+  </si>
+  <si>
+    <t>NC_002945.4-2095910</t>
   </si>
 </sst>
 </file>
@@ -2023,18 +2023,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A138" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
-      <selection activeCell="B163" sqref="B163"/>
+    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -2042,15 +2042,15 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2058,15 +2058,15 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2074,23 +2074,23 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>38</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -2098,39 +2098,39 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>40</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2138,31 +2138,31 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>45</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>46</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>47</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2178,15 +2178,15 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>50</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -2194,23 +2194,23 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>52</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>53</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2226,7 +2226,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2242,23 +2242,23 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -2266,23 +2266,23 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>58</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>59</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2290,7 +2290,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2298,7 +2298,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -2306,7 +2306,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2314,7 +2314,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2322,31 +2322,31 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="B38" s="3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="B38" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -2354,47 +2354,47 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>4</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>67</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>68</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>5</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>69</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -2402,15 +2402,15 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>6</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -2418,7 +2418,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -2426,7 +2426,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -2434,15 +2434,15 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>74</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -2450,7 +2450,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2458,7 +2458,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2466,55 +2466,55 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
+        <v>297</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>298</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>299</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
         <v>300</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>301</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2530,135 +2530,135 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="B64" s="3" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>288</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>289</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
+        <v>268</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>269</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>270</v>
-      </c>
       <c r="B68" s="3" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>76</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>77</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
+        <v>271</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>272</v>
       </c>
-      <c r="B74" s="3" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>273</v>
-      </c>
       <c r="B75" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
+        <v>282</v>
+      </c>
+      <c r="B76" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B76" s="3" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
+      <c r="B77" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B77" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>14</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>15</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2674,7 +2674,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2682,15 +2682,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -2714,39 +2714,39 @@
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>85</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>86</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>87</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>88</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>89</v>
       </c>
@@ -2770,39 +2770,39 @@
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>90</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>91</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>92</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>93</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>94</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>95</v>
       </c>
@@ -2818,7 +2818,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>17</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>96</v>
       </c>
@@ -2834,23 +2834,23 @@
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>18</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>97</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -2858,15 +2858,15 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>99</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>100</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>101</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>19</v>
       </c>
@@ -2890,15 +2890,15 @@
         <v>192</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>20</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>102</v>
       </c>
@@ -2906,47 +2906,47 @@
         <v>164</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>103</v>
       </c>
@@ -2954,47 +2954,47 @@
         <v>190</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
+        <v>317</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
         <v>318</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>319</v>
-      </c>
-      <c r="B117" s="3" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+      <c r="B118" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="B118" s="3" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>21</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>22</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>104</v>
       </c>
@@ -3002,7 +3002,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>105</v>
       </c>
@@ -3010,15 +3010,15 @@
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>106</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>107</v>
       </c>
@@ -3026,7 +3026,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>108</v>
       </c>
@@ -3034,47 +3034,47 @@
         <v>137</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>116</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>109</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
+      <c r="B128" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
         <v>315</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>316</v>
       </c>
       <c r="B129" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>117</v>
       </c>
@@ -3082,7 +3082,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>110</v>
       </c>
@@ -3090,7 +3090,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>23</v>
       </c>
@@ -3098,7 +3098,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>24</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>25</v>
       </c>
@@ -3114,7 +3114,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>27</v>
       </c>
@@ -3130,15 +3130,15 @@
         <v>203</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>111</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>28</v>
       </c>
@@ -3146,7 +3146,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>29</v>
       </c>
@@ -3154,31 +3154,31 @@
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>126</v>
       </c>
@@ -3186,7 +3186,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>127</v>
       </c>
@@ -3194,15 +3194,15 @@
         <v>206</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>129</v>
       </c>
@@ -3210,7 +3210,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>130</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>131</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>30</v>
       </c>
@@ -3234,15 +3234,15 @@
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>31</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>32</v>
       </c>
@@ -3250,15 +3250,15 @@
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>114</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>115</v>
       </c>
@@ -3266,15 +3266,15 @@
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>33</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>122</v>
       </c>
@@ -3282,7 +3282,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>118</v>
       </c>
@@ -3290,7 +3290,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>119</v>
       </c>
@@ -3298,15 +3298,15 @@
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>120</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>121</v>
       </c>
@@ -3314,60 +3314,60 @@
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
+        <v>329</v>
+      </c>
+      <c r="B161" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="B161" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163"/>
       <c r="B163"/>
       <c r="D163" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="E163" s="8" t="s">
         <v>306</v>
       </c>
-      <c r="E163" s="8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164"/>
       <c r="B164"/>
       <c r="D164" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E164" s="7" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165"/>
       <c r="B165"/>
       <c r="D165" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166"/>
       <c r="B166"/>
       <c r="D166" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="E166" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>312</v>
       </c>
     </row>
   </sheetData>

--- a/dependencies/mycobacterium/tbc/af2122/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/mycobacterium/tbc/af2122/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="13332" yWindow="588" windowWidth="25140" windowHeight="27300" tabRatio="500"/>
+    <workbookView xWindow="13335" yWindow="585" windowWidth="25140" windowHeight="27300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
   <si>
     <t>Mbovis-01</t>
   </si>
@@ -1020,6 +1020,18 @@
   </si>
   <si>
     <t>NC_002945.4-2095910</t>
+  </si>
+  <si>
+    <t>NC_002945.4-2911106</t>
+  </si>
+  <si>
+    <t>Mbovis-17G</t>
+  </si>
+  <si>
+    <t>Mbovis-09R</t>
+  </si>
+  <si>
+    <t>NC_002945.4-3429658</t>
   </si>
 </sst>
 </file>
@@ -2021,20 +2033,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E166"/>
+  <dimension ref="A1:E168"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.09765625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>112</v>
       </c>
@@ -2042,7 +2054,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -2050,7 +2062,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2058,7 +2070,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>35</v>
       </c>
@@ -2066,7 +2078,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
@@ -2074,7 +2086,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -2082,7 +2094,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>38</v>
       </c>
@@ -2090,7 +2102,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>39</v>
       </c>
@@ -2098,7 +2110,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>40</v>
       </c>
@@ -2106,7 +2118,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>41</v>
       </c>
@@ -2114,7 +2126,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2122,7 +2134,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -2130,7 +2142,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -2138,7 +2150,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -2146,7 +2158,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -2154,7 +2166,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -2162,7 +2174,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -2170,7 +2182,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -2178,7 +2190,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -2186,7 +2198,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -2194,7 +2206,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -2202,7 +2214,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -2210,7 +2222,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>1</v>
       </c>
@@ -2218,7 +2230,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -2226,7 +2238,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -2234,7 +2246,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -2242,7 +2254,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -2250,7 +2262,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -2258,7 +2270,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>57</v>
       </c>
@@ -2266,7 +2278,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -2274,7 +2286,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>59</v>
       </c>
@@ -2282,7 +2294,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>60</v>
       </c>
@@ -2290,7 +2302,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>61</v>
       </c>
@@ -2298,7 +2310,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -2306,7 +2318,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>63</v>
       </c>
@@ -2314,7 +2326,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>64</v>
       </c>
@@ -2322,7 +2334,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>65</v>
       </c>
@@ -2330,7 +2342,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>326</v>
       </c>
@@ -2338,7 +2350,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
         <v>327</v>
       </c>
@@ -2346,7 +2358,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>66</v>
       </c>
@@ -2354,7 +2366,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>4</v>
       </c>
@@ -2362,7 +2374,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>67</v>
       </c>
@@ -2370,7 +2382,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>68</v>
       </c>
@@ -2378,7 +2390,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2386,7 +2398,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
@@ -2394,7 +2406,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>70</v>
       </c>
@@ -2402,7 +2414,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>6</v>
       </c>
@@ -2410,7 +2422,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>71</v>
       </c>
@@ -2418,7 +2430,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -2426,7 +2438,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>73</v>
       </c>
@@ -2434,7 +2446,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -2442,7 +2454,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>75</v>
       </c>
@@ -2450,7 +2462,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -2458,7 +2470,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>8</v>
       </c>
@@ -2466,907 +2478,923 @@
         <v>134</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="5" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>334</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>10</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>297</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
         <v>298</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
         <v>299</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>300</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B61" s="3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>11</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B62" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>12</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B63" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
         <v>267</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B64" s="3" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>287</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B65" s="3" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
         <v>288</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B66" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
         <v>289</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B67" s="3" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
         <v>268</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B68" s="3" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
         <v>269</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B69" s="3" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" s="5" t="s">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B70" s="3" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B71" s="3" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>324</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
         <v>77</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B73" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
         <v>270</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B74" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
         <v>271</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="3" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
         <v>272</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B76" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
         <v>282</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B77" s="3" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
         <v>284</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="B78" s="3" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B79" s="3" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
         <v>15</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B80" s="3" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>78</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B81" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B82" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
         <v>80</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B83" s="3" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>81</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B84" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>82</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B85" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
         <v>16</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B86" s="3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>83</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B87" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>84</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B88" s="3" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>85</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B89" s="3" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
         <v>86</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B90" s="3" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
         <v>87</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B91" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
         <v>88</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B92" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
         <v>89</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B93" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>90</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B94" s="3" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
         <v>91</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B95" s="3" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>92</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B96" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>93</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B97" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
         <v>94</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B98" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
         <v>95</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B99" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>333</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>17</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B101" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>96</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B102" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>18</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B103" s="3" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>97</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B104" s="3" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>98</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B105" s="3" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>99</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B106" s="3" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>100</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B107" s="3" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>101</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B108" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>19</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B109" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>20</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B110" s="3" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
         <v>102</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B111" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B112" s="3" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B113" s="3" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B114" s="3" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B115" s="3" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B116" s="3" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
         <v>103</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B117" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>317</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B118" s="3" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>318</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B119" s="3" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>321</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B120" s="3" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
         <v>21</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B121" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>22</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B122" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>104</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B123" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
         <v>105</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B124" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>106</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B125" s="3" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
         <v>107</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B126" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
         <v>108</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B127" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
         <v>116</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B128" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>109</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B129" s="3" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>314</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B130" s="3" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
         <v>315</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B131" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
         <v>316</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B132" s="3" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
         <v>117</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B133" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
         <v>110</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B134" s="3" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
         <v>23</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B135" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
         <v>24</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B136" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
         <v>25</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B137" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
         <v>26</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B138" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>27</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B139" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>111</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B140" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>28</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B141" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
         <v>29</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B142" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B143" s="3" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B144" s="3" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B145" s="3" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B146" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B147" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B148" s="3" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B149" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B150" s="3" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B151" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>30</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B152" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
         <v>31</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B153" s="3" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
         <v>32</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B154" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
         <v>114</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B155" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>115</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B156" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>33</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B157" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>122</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B158" s="3" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>118</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B159" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>119</v>
       </c>
-      <c r="B158" s="3" t="s">
+      <c r="B160" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>120</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B161" s="3" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>121</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B162" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
         <v>329</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B163" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B162" s="3" t="s">
+      <c r="B164" s="3" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163"/>
-      <c r="B163"/>
-      <c r="D163" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E163" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164"/>
-      <c r="B164"/>
-      <c r="D164" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E164" s="7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165"/>
       <c r="B165"/>
       <c r="D165" s="6" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E165" s="8" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166"/>
       <c r="B166"/>
       <c r="D166" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167"/>
+      <c r="B167"/>
+      <c r="D167" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168"/>
+      <c r="B168"/>
+      <c r="D168" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="E166" s="7" t="s">
+      <c r="E168" s="7" t="s">
         <v>311</v>
       </c>
     </row>

--- a/dependencies/mycobacterium/tbc/af2122/script_dependents/DefiningSNPsGroupDesignations.xlsx
+++ b/dependencies/mycobacterium/tbc/af2122/script_dependents/DefiningSNPsGroupDesignations.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="338">
   <si>
     <t>Mbovis-01</t>
   </si>
@@ -1032,6 +1032,12 @@
   </si>
   <si>
     <t>NC_002945.4-3429658</t>
+  </si>
+  <si>
+    <t>NC_002945.4-1080364</t>
+  </si>
+  <si>
+    <t>Mbovis-37</t>
   </si>
 </sst>
 </file>
@@ -2033,10 +2039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A137" zoomScale="129" zoomScaleNormal="129" zoomScalePageLayoutView="129" workbookViewId="0">
+      <selection activeCell="A157" sqref="A157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3296,105 +3302,113 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>33</v>
+        <v>337</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>252</v>
+        <v>336</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>136</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>256</v>
+        <v>148</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>157</v>
+        <v>256</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
+        <v>121</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
         <v>329</v>
       </c>
-      <c r="B163" s="3" t="s">
+      <c r="B164" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A164" s="1" t="s">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B164" s="3" t="s">
+      <c r="B165" s="3" t="s">
         <v>280</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A165"/>
-      <c r="B165"/>
-      <c r="D165" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="E165" s="8" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166"/>
       <c r="B166"/>
       <c r="D166" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E166" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167"/>
       <c r="B167"/>
       <c r="D167" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="E167" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168"/>
       <c r="B168"/>
       <c r="D168" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169"/>
+      <c r="B169"/>
+      <c r="D169" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="E168" s="7" t="s">
+      <c r="E169" s="7" t="s">
         <v>311</v>
       </c>
     </row>
